--- a/config/operation_menu.xlsx
+++ b/config/operation_menu.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t xml:space="preserve">Level2</t>
   </si>
@@ -83,6 +83,48 @@
   </si>
   <si>
     <t xml:space="preserve">data/all_fund_code_list_EM.xlsx </t>
+  </si>
+  <si>
+    <t xml:space="preserve">全球指数代码列表-东方财富</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ak.index_global_spot_em()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data/global_index_code_list_EM.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['序号', '代码', '名称']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">香港股票代码列表-东方财富</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ak.stock_hk_spot_em()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data/hk_stock_code_list_EM.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A股股票代码列表-新浪财经</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ak.stock_zh_a_spot()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data/china_stock_list_a_SINA.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ '代码', '名称']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A股股票代码列表-东方财富</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ak.stock_zh_a_spot_em()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data/china_stock_list_a_EM.xlsx</t>
   </si>
 </sst>
 </file>
@@ -296,10 +338,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -421,6 +463,106 @@
         <v>10</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
